--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\read_gps_data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6AA6A9-9917-4232-8677-F6D6E58A60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93536E-6154-4A16-B4FB-3C7E713F4574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã NV</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Ngày duyệt đơn</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -421,9 +424,10 @@
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="36.5546875" customWidth="1"/>
     <col min="7" max="7" width="41.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +449,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -454,69 +461,70 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6AA6A9-9917-4232-8677-F6D6E58A60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB68FD34-F282-4657-8E4D-832573F7C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Mã NV</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -421,9 +421,10 @@
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="36.5546875" customWidth="1"/>
     <col min="7" max="7" width="41.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +446,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -454,69 +458,70 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\read_gps_data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93536E-6154-4A16-B4FB-3C7E713F4574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42C0D3-F19F-4D88-9ED8-73BE0C45BCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42C0D3-F19F-4D88-9ED8-73BE0C45BCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72659F13-EA1F-4897-8871-871671CE6F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,13 +37,13 @@
     <t>Ngày tạo đơn</t>
   </si>
   <si>
+    <t>Ngày duyệt đơn</t>
+  </si>
+  <si>
     <t>Lý do</t>
   </si>
   <si>
     <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Ngày duyệt đơn</t>
   </si>
 </sst>
 </file>
@@ -97,16 +97,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -114,25 +114,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -422,7 +416,7 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
     <col min="7" max="7" width="41.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
@@ -443,7 +437,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -454,80 +448,14 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72659F13-EA1F-4897-8871-871671CE6F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mã NV</t>
   </si>
@@ -37,28 +44,206 @@
     <t>Ngày tạo đơn</t>
   </si>
   <si>
-    <t>Ngày duyệt đơn</t>
-  </si>
-  <si>
     <t>Lý do</t>
   </si>
   <si>
-    <t>Trạng thái</t>
+    <t>Ngày Duyệt/Từ chối 1</t>
+  </si>
+  <si>
+    <t>Trạng thái 1</t>
+  </si>
+  <si>
+    <t>Ngày Duyệt/Từ chối 2</t>
+  </si>
+  <si>
+    <t>Trạng thái 2</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,8 +256,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -97,49 +468,326 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,31 +1045,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.44444444444444" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="41.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="22.2148148148148" customWidth="1"/>
+    <col min="11" max="11" width="26.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,30 +1085,43 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -72,19 +72,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -567,19 +555,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,127 +585,118 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,10 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -729,7 +714,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1042,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -1091,16 +1079,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -1108,17 +1096,17 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -47,16 +47,16 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Ngày Duyệt/Từ chối 1</t>
+    <t>Ngày Duyệt/Từ chối Lần đầu</t>
   </si>
   <si>
-    <t>Trạng thái 1</t>
+    <t>Trạng thái Lần đầu</t>
   </si>
   <si>
-    <t>Ngày Duyệt/Từ chối 2</t>
+    <t>Ngày Duyệt/Từ chối Lần cuối</t>
   </si>
   <si>
-    <t>Trạng thái 2</t>
+    <t>Trạng thái Lần cuối</t>
   </si>
   <si>
     <t>Note</t>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -1050,12 +1050,12 @@
     <col min="1" max="1" width="8.44444444444444" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="12.2814814814815" customWidth="1"/>
     <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="22.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="41.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="18.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="22.2148148148148" customWidth="1"/>
     <col min="11" max="11" width="26.4" customWidth="1"/>
   </cols>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD86BE6E-B141-47AB-8E21-81BF789E1CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504C454-EE90-4861-9474-AC0ED3AA9601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,10 +65,10 @@
     <t>Trạng thái Lần cuối</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Tháng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,9 +134,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -445,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -471,16 +468,16 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504C454-EE90-4861-9474-AC0ED3AA9601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +35,9 @@
     <t>Tên NV</t>
   </si>
   <si>
+    <t>Tháng</t>
+  </si>
+  <si>
     <t>Ngày Nghỉ</t>
   </si>
   <si>
@@ -65,25 +62,179 @@
     <t>Trạng thái Lần cuối</t>
   </si>
   <si>
-    <t>Tháng</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +247,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -120,36 +457,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,34 +1027,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.44444444444444" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="41.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="24.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="22.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="26.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,31 +1062,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -475,18 +1095,19 @@
     <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD86BE6E-B141-47AB-8E21-81BF789E1CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +35,9 @@
     <t>Tên NV</t>
   </si>
   <si>
+    <t>Tháng</t>
+  </si>
+  <si>
     <t>Ngày Nghỉ</t>
   </si>
   <si>
@@ -65,25 +62,179 @@
     <t>Trạng thái Lần cuối</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Tháng</t>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +247,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -120,39 +457,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -410,34 +1027,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.44444444444444" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="41.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="24.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="22.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="26.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,51 +1062,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1757FC-DD4F-4C71-AD3C-07BA2C0EB42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6073E-8646-44FB-8E8F-E69D64361489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,11 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -424,10 +424,10 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" customWidth="1"/>
     <col min="9" max="9" width="24.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" customWidth="1"/>
     <col min="11" max="11" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,15 +469,15 @@
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form nghỉ phép.xlsx
+++ b/templates/Copy of Form nghỉ phép.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6073E-8646-44FB-8E8F-E69D64361489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A30FA7-827C-4A70-9DA6-0EC2ABF9162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Mã NV</t>
   </si>
@@ -53,19 +53,13 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Ngày Duyệt/Từ chối Lần đầu</t>
-  </si>
-  <si>
-    <t>Trạng thái Lần đầu</t>
-  </si>
-  <si>
-    <t>Ngày Duyệt/Từ chối Lần cuối</t>
-  </si>
-  <si>
-    <t>Trạng thái Lần cuối</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Ngày Duyệt/Từ chối</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -121,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,9 +125,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -424,14 +415,12 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" customWidth="1"/>
-    <col min="10" max="10" width="32.77734375" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,33 +440,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
